--- a/Stock Selection/Ticker_Correction.xlsx
+++ b/Stock Selection/Ticker_Correction.xlsx
@@ -1,25 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional_WorkTools\Github\RodWal-Capital-Insights\Stock Selection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF6CDE4-CE13-4558-901E-DFA4A138202B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$17</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+  <si>
+    <t>XTB_Shown</t>
+  </si>
+  <si>
+    <t>YFINANCE</t>
+  </si>
+  <si>
+    <t>SDIA.UK</t>
+  </si>
+  <si>
+    <t>SHELL.NL</t>
+  </si>
+  <si>
+    <t>BATT.NL</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>USDJPY</t>
+  </si>
+  <si>
+    <t>USDMXN</t>
+  </si>
+  <si>
+    <t>BOTZ.UK</t>
+  </si>
+  <si>
+    <t>VBTC.DE</t>
+  </si>
+  <si>
+    <t>MC.FR</t>
+  </si>
+  <si>
+    <t>US500</t>
+  </si>
+  <si>
+    <t>BND</t>
+  </si>
+  <si>
+    <t>VWO</t>
+  </si>
+  <si>
+    <t>VHYD.UK</t>
+  </si>
+  <si>
+    <t>BBVA.ES</t>
+  </si>
+  <si>
+    <t>FLOA.UK</t>
+  </si>
+  <si>
+    <t>BBVA.MC</t>
+  </si>
+  <si>
+    <t>SPX</t>
+  </si>
+  <si>
+    <t>SDIA.L</t>
+  </si>
+  <si>
+    <t>BOTZ.L</t>
+  </si>
+  <si>
+    <t>VHYD.L</t>
+  </si>
+  <si>
+    <t>FLOA.L</t>
+  </si>
+  <si>
+    <t>SHELL.AS</t>
+  </si>
+  <si>
+    <t>BATT.AS</t>
+  </si>
+  <si>
+    <t>^VIX</t>
+  </si>
+  <si>
+    <t>JPY=X</t>
+  </si>
+  <si>
+    <t>MXN=X</t>
+  </si>
+  <si>
+    <t>MC.PA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +445,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B17" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="^VIX"/>
+        <filter val="JPY=X"/>
+        <filter val="MXN=X"/>
+        <filter val="SPX"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>